--- a/Output_testing/R1_201907/Country/HKD/MN/BARBADOS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BARBADOS_201907_HKD_MN.xlsx
@@ -544,8 +544,10 @@
       <c r="C7" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.259688</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>0.7893210000000001</v>
@@ -624,8 +626,10 @@
       <c r="G9" s="8" t="n">
         <v>47.035283</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>9567.523645098334</v>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I9" s="9" t="n">
         <v>-0.6564088953546321</v>
@@ -658,8 +662,10 @@
       <c r="G10" s="8" t="n">
         <v>87.255458</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>3615.895844491351</v>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I10" s="9" t="n">
         <v>11.91284801339594</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/BARBADOS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BARBADOS_201907_HKD_MN.xlsx
@@ -816,136 +816,493 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0.5241065201097053</v>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0.8643018693239484</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>3.610153</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>25.34222309266612</v>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1.147763</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.23338085229745</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>2.696306</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18.92728318663897</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>226.3617338299214</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>20.831401</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>55.32911571267767</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>6.109793</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>57.86252931461453</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>2.571626</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>22.92845149013367</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.601219</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>18.2598001278289</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>207.2642202571778</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.979684</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.602083719566385</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0.57705</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.464926969047612</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.132955</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>19.01728915796389</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.394013</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>16.80527432846833</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>126.2836375322552</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.6897427302750228</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.579912801718092</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.311746397271081</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.394731217101696</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.58255</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.547278378368329</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.633312</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.997753797108537</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.57300523998444</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.307349880893089</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>85.93432440005209</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.117663</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.968562001892165</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.196373800057637</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.312874</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>11.70549987504316</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.160076388472094</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-62.03435000231924</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.196488</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.177924662908187</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.779277</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>6.947983451667115</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.860748981878972</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-47.70396149251165</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.9542634551200293</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.533097</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.753058455636936</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.635177656547405</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-29.58185846103054</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.101926216162665</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.892982704199853</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.181892305663589</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.806114938607381</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>89.9885545504892</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>11.711025</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>31.10499660291984</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>2.006822</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>19.00552061325374</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1.51228</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.4833909050147</v>
+      </c>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.501220200897048</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-14.26415379749446</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -977,136 +1334,605 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>61.26784920203568</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>37.3318388246492</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>86.70722327109992</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>38.41542287611757</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.806759</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>62.27832290805452</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>12.6984126984127</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-91.2211701387899</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.5943640304873785</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.3167279218467518</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.3898382672962748</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>METALLIC SALTS AND PEROXYSALTS, OF INORGANIC ACIDS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1138,136 +1964,491 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>0.5277466140141404</v>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>0.977161955327896</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>3.610153</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>26.37484177592037</v>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1.147763</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.56965037119232</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>2.696306</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>19.69851253657801</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>226.3617338299214</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>20.831401</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>55.71339480312162</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>6.109793</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>62.5373394342912</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>2.571626</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>25.92243669247728</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2.601219</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>19.00383156877778</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>207.2642202571778</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>0.979684</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.620156055480925</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.57705</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.906447521308452</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2.132955</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>21.50055682879349</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.394013</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>17.49003825724185</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>126.2836375322552</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.58255</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.558024740753563</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>0.633312</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>6.482322316289574</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.908986918353819</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.44211435149935</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>85.93432440005209</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.196488</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.199996405484076</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>0.779277</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>7.855247496488067</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.977315821180599</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-47.70396149251165</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.117663</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.989179651231395</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.3509681640380306</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>0.506115</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>5.101727096635803</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.771418130481406</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>0.09815925018998861</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.9608911318478069</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.533097</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>5.37371034258075</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.742553148898448</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-29.58185846103054</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.109579459823421</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>4.181914284708274</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.546477261547444</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.879708641215512</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>97.34765100671142</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1774337574041946</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.5547280649247601</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.924909963888786</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.7264609399303003</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>94.95921888479334</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>11.644682</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>31.14359738083886</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1.952626</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>19.98628021443972</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1.32132</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>13.31913507271434</v>
+      </c>
+      <c r="I54" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.893204828276373</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-25.38492844061588</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1299,136 +2480,563 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>82.691929</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>97.28245352647727</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>83.63021999999999</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>99.03638431818698</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>46.686444</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>99.25834612284569</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>2.140502040974734</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>14.75629284892158</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.1212843548958526</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>0.1080811783581616</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>0.3756435355135421</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>229.9193337565821</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.2131211310053735</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.2183764898363639</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>431.8937393195588</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>10.8228357740443</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.1397074735804419</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.05634507676602233</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.07296650048858003</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-27.86885245901639</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.345571008084145</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.05132399384277864</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>25.52868002764339</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>41.94497140751457</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.570013</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.847032939677404</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.5852166884454165</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-96.12927084831426</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>29.1303289614354</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.1293006467679338</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.1397803169641491</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.1280089108601637</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1105669467721867</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
